--- a/taxonomy4good/taxonomies/un_sdg_taxonomy.xlsx
+++ b/taxonomy4good/taxonomies/un_sdg_taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anis.bouhamadouche/PycharmProjects/taxonomy4good/taxonomy4good/taxonomies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FF610E-B8F6-0B4A-94F2-F41B59F90C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C929882-13C4-6540-A296-427083B38CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -1021,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:L290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
